--- a/inegalites/data/OpenData_Cereq-Enq_Generation-Donnees_INEGALITE.xlsx
+++ b/inegalites/data/OpenData_Cereq-Enq_Generation-Donnees_INEGALITE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\DataViz\Data\VF\Deuxieme envoi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noack\gitCereq\cereq-dataviz\inegalites\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699A6588-2AD1-4C89-8AE6-E4FAD9B55055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236A5B8E-1C3B-4232-ADDD-E0A80D1D724A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="2" r:id="rId1"/>
@@ -142,12 +142,6 @@
   </si>
   <si>
     <t>Ménages à dominante cadre</t>
-  </si>
-  <si>
-    <t>Ménages à dominante intermédiaire (ou cadre)</t>
-  </si>
-  <si>
-    <t>Ménages à dominante employée (ou intermédiaire)</t>
   </si>
   <si>
     <t>Ménages à dominante indépendante</t>
@@ -400,6 +394,12 @@
   </si>
   <si>
     <t>eff_g7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ménages à dominante intermédiaire </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ménages à dominante employée </t>
   </si>
 </sst>
 </file>
@@ -813,7 +813,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -821,42 +821,42 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -875,19 +875,19 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C16" s="4"/>
     </row>
@@ -896,10 +896,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -907,10 +907,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -918,10 +918,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -929,18 +929,18 @@
         <v>3</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C21" s="4"/>
     </row>
@@ -949,18 +949,18 @@
         <v>4</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C23" s="4"/>
     </row>
@@ -969,16 +969,16 @@
         <v>5</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C25" s="4"/>
     </row>
@@ -987,117 +987,117 @@
         <v>6</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C39" s="4"/>
     </row>
@@ -1106,7 +1106,7 @@
         <v>7</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1114,7 +1114,7 @@
         <v>8</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1122,7 +1122,7 @@
         <v>9</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1130,15 +1130,15 @@
         <v>10</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C44" s="4"/>
     </row>
@@ -1147,7 +1147,7 @@
         <v>11</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1155,7 +1155,7 @@
         <v>12</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1168,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -1225,73 +1225,73 @@
         <v>4</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="S1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="T1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="AI1" s="5" t="s">
         <v>7</v>
@@ -1306,10 +1306,10 @@
         <v>10</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AN1" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AO1" s="5" t="s">
         <v>11</v>
@@ -3210,7 +3210,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="C17" s="5">
         <v>2</v>
@@ -3338,7 +3338,7 @@
         <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="C18" s="1">
         <v>9</v>
@@ -3464,7 +3464,7 @@
         <v>33</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="C19" s="5">
         <v>16</v>
@@ -3589,7 +3589,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="C20" s="5">
         <v>23</v>
@@ -3714,7 +3714,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="C21" s="5">
         <v>30</v>
@@ -3839,7 +3839,7 @@
         <v>33</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="C22" s="5">
         <v>3</v>
@@ -3967,7 +3967,7 @@
         <v>33</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="C23" s="5">
         <v>10</v>
@@ -4095,7 +4095,7 @@
         <v>33</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="C24" s="5">
         <v>17</v>
@@ -4220,7 +4220,7 @@
         <v>33</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="C25" s="5">
         <v>24</v>
@@ -4345,7 +4345,7 @@
         <v>33</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="C26" s="5">
         <v>31</v>
@@ -4470,7 +4470,7 @@
         <v>33</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C27" s="5">
         <v>4</v>
@@ -4598,7 +4598,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C28" s="5">
         <v>11</v>
@@ -4723,7 +4723,7 @@
         <v>33</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C29" s="5">
         <v>18</v>
@@ -4848,7 +4848,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C30" s="5">
         <v>25</v>
@@ -4973,7 +4973,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C31" s="5">
         <v>32</v>
@@ -5098,7 +5098,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32" s="5">
         <v>5</v>
@@ -5226,7 +5226,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C33" s="5">
         <v>12</v>
@@ -5351,7 +5351,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C34" s="5">
         <v>19</v>
@@ -5476,7 +5476,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C35" s="5">
         <v>26</v>
@@ -5601,7 +5601,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C36" s="5">
         <v>33</v>
@@ -5726,7 +5726,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C37" s="5">
         <v>6</v>
@@ -5854,7 +5854,7 @@
         <v>33</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" s="5">
         <v>13</v>
@@ -5979,7 +5979,7 @@
         <v>33</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39" s="5">
         <v>20</v>
@@ -6104,7 +6104,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C40" s="5">
         <v>27</v>
@@ -6229,7 +6229,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C41" s="5">
         <v>34</v>
@@ -6354,7 +6354,7 @@
         <v>33</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C42" s="5">
         <v>7</v>
@@ -6482,7 +6482,7 @@
         <v>33</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C43" s="5">
         <v>14</v>
@@ -6607,7 +6607,7 @@
         <v>33</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C44" s="5">
         <v>21</v>
@@ -6732,7 +6732,7 @@
         <v>33</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C45" s="5">
         <v>28</v>
@@ -6857,7 +6857,7 @@
         <v>33</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C46" s="5">
         <v>35</v>
@@ -6979,10 +6979,10 @@
     </row>
     <row r="47" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C47" s="5">
         <v>1</v>
@@ -7107,10 +7107,10 @@
     </row>
     <row r="48" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C48" s="5">
         <v>8</v>
@@ -7232,10 +7232,10 @@
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C49" s="5">
         <v>15</v>
@@ -7357,10 +7357,10 @@
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C50" s="5">
         <v>22</v>
@@ -7482,10 +7482,10 @@
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C51" s="5">
         <v>29</v>
@@ -7607,10 +7607,10 @@
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="C52" s="5">
         <v>2</v>
@@ -7735,10 +7735,10 @@
     </row>
     <row r="53" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="C53" s="5">
         <v>9</v>
@@ -7863,10 +7863,10 @@
     </row>
     <row r="54" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="C54" s="5">
         <v>16</v>
@@ -7988,10 +7988,10 @@
     </row>
     <row r="55" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="C55" s="5">
         <v>23</v>
@@ -8116,10 +8116,10 @@
     </row>
     <row r="56" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="C56" s="5">
         <v>30</v>
@@ -8241,10 +8241,10 @@
     </row>
     <row r="57" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C57" s="5">
         <v>3</v>
@@ -8369,10 +8369,10 @@
     </row>
     <row r="58" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C58" s="5">
         <v>10</v>
@@ -8497,10 +8497,10 @@
     </row>
     <row r="59" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C59" s="5">
         <v>17</v>
@@ -8622,10 +8622,10 @@
     </row>
     <row r="60" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C60" s="5">
         <v>24</v>
@@ -8750,10 +8750,10 @@
     </row>
     <row r="61" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C61" s="5">
         <v>31</v>
@@ -8875,10 +8875,10 @@
     </row>
     <row r="62" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C62" s="5">
         <v>4</v>
@@ -9003,10 +9003,10 @@
     </row>
     <row r="63" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C63" s="5">
         <v>11</v>
@@ -9131,10 +9131,10 @@
     </row>
     <row r="64" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C64" s="5">
         <v>18</v>
@@ -9256,10 +9256,10 @@
     </row>
     <row r="65" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C65" s="5">
         <v>25</v>
@@ -9381,10 +9381,10 @@
     </row>
     <row r="66" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C66" s="5">
         <v>32</v>
@@ -9506,10 +9506,10 @@
     </row>
     <row r="67" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C67" s="5">
         <v>5</v>
@@ -9634,10 +9634,10 @@
     </row>
     <row r="68" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C68" s="5">
         <v>12</v>
@@ -9759,10 +9759,10 @@
     </row>
     <row r="69" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C69" s="5">
         <v>19</v>
@@ -9884,10 +9884,10 @@
     </row>
     <row r="70" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C70" s="5">
         <v>26</v>
@@ -10009,10 +10009,10 @@
     </row>
     <row r="71" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C71" s="5">
         <v>33</v>
@@ -10134,10 +10134,10 @@
     </row>
     <row r="72" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C72" s="5">
         <v>6</v>
@@ -10262,10 +10262,10 @@
     </row>
     <row r="73" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C73" s="5">
         <v>13</v>
@@ -10390,10 +10390,10 @@
     </row>
     <row r="74" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C74" s="5">
         <v>20</v>
@@ -10515,10 +10515,10 @@
     </row>
     <row r="75" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C75" s="5">
         <v>27</v>
@@ -10643,10 +10643,10 @@
     </row>
     <row r="76" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C76" s="5">
         <v>34</v>
@@ -10771,10 +10771,10 @@
     </row>
     <row r="77" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C77" s="5">
         <v>7</v>
@@ -10899,10 +10899,10 @@
     </row>
     <row r="78" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C78" s="5">
         <v>14</v>
@@ -11027,10 +11027,10 @@
     </row>
     <row r="79" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C79" s="5">
         <v>21</v>
@@ -11152,10 +11152,10 @@
     </row>
     <row r="80" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C80" s="5">
         <v>28</v>
@@ -11277,10 +11277,10 @@
     </row>
     <row r="81" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C81" s="5">
         <v>35</v>
@@ -11402,10 +11402,10 @@
     </row>
     <row r="82" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C82" s="5">
         <v>1</v>
@@ -11527,10 +11527,10 @@
     </row>
     <row r="83" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C83" s="5">
         <v>3</v>
@@ -11652,10 +11652,10 @@
     </row>
     <row r="84" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C84" s="5">
         <v>5</v>
@@ -11777,10 +11777,10 @@
     </row>
     <row r="85" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C85" s="5">
         <v>7</v>
@@ -11902,10 +11902,10 @@
     </row>
     <row r="86" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C86" s="5">
         <v>9</v>
@@ -12027,10 +12027,10 @@
     </row>
     <row r="87" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="C87" s="5">
         <v>2</v>
@@ -12152,10 +12152,10 @@
     </row>
     <row r="88" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="C88" s="5">
         <v>4</v>
@@ -12277,10 +12277,10 @@
     </row>
     <row r="89" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="C89" s="5">
         <v>6</v>
@@ -12402,10 +12402,10 @@
     </row>
     <row r="90" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="C90" s="5">
         <v>8</v>
@@ -12527,10 +12527,10 @@
     </row>
     <row r="91" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="C91" s="5">
         <v>10</v>
@@ -12652,7 +12652,7 @@
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
